--- a/Code/Results/Cases/Case_2_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_71/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.986074144023064</v>
+        <v>0.3744571182745915</v>
       </c>
       <c r="C2">
-        <v>0.188491486351424</v>
+        <v>0.06005086765733836</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8281674569015252</v>
+        <v>0.5865357784368257</v>
       </c>
       <c r="F2">
-        <v>2.101276715511787</v>
+        <v>2.449169946602794</v>
       </c>
       <c r="G2">
-        <v>0.4503871130373085</v>
+        <v>0.7060045748315815</v>
       </c>
       <c r="H2">
-        <v>0.3564898360923792</v>
+        <v>0.8060969680762184</v>
       </c>
       <c r="I2">
-        <v>0.2936463452742757</v>
+        <v>0.6189324368316598</v>
       </c>
       <c r="J2">
-        <v>0.03150242773213208</v>
+        <v>0.05891706508964489</v>
       </c>
       <c r="K2">
-        <v>1.124300384266206</v>
+        <v>0.4070731114357784</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.71606642283112</v>
+        <v>1.464706026856127</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8553734723932394</v>
+        <v>0.336929604762048</v>
       </c>
       <c r="C3">
-        <v>0.1631848845211721</v>
+        <v>0.0528572948692414</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7233489578219263</v>
+        <v>0.5621997698815164</v>
       </c>
       <c r="F3">
-        <v>1.900126090040615</v>
+        <v>2.416051399948927</v>
       </c>
       <c r="G3">
-        <v>0.4333555906657836</v>
+        <v>0.70818315275271</v>
       </c>
       <c r="H3">
-        <v>0.356001691498534</v>
+        <v>0.8116852256986249</v>
       </c>
       <c r="I3">
-        <v>0.2961939527294675</v>
+        <v>0.6245805938032412</v>
       </c>
       <c r="J3">
-        <v>0.03085167883306639</v>
+        <v>0.0592587495646768</v>
       </c>
       <c r="K3">
-        <v>0.9747819663436985</v>
+        <v>0.3642351848663168</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7593294517610403</v>
+        <v>1.482308678207872</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7754775628960999</v>
+        <v>0.3139622367207835</v>
       </c>
       <c r="C4">
-        <v>0.1477616562444268</v>
+        <v>0.04844568282838679</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6598683363408639</v>
+        <v>0.5475473916211939</v>
       </c>
       <c r="F4">
-        <v>1.780285518348492</v>
+        <v>2.397185469945342</v>
       </c>
       <c r="G4">
-        <v>0.4241764782383939</v>
+        <v>0.7100314026908947</v>
       </c>
       <c r="H4">
-        <v>0.3564539650535892</v>
+        <v>0.8155048964673384</v>
       </c>
       <c r="I4">
-        <v>0.298524426045649</v>
+        <v>0.6284047086951574</v>
       </c>
       <c r="J4">
-        <v>0.03053780862756739</v>
+        <v>0.05950553241511614</v>
       </c>
       <c r="K4">
-        <v>0.8834399303553937</v>
+        <v>0.3380054391976159</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7870524313420315</v>
+        <v>1.493666059897231</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7429916648405026</v>
+        <v>0.30462197637911</v>
       </c>
       <c r="C5">
-        <v>0.1415004052683031</v>
+        <v>0.04664922509469704</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6341942334563271</v>
+        <v>0.5416492343913291</v>
       </c>
       <c r="F5">
-        <v>1.732294884537467</v>
+        <v>2.389866223045118</v>
       </c>
       <c r="G5">
-        <v>0.4207375378418448</v>
+        <v>0.7109126913038821</v>
       </c>
       <c r="H5">
-        <v>0.3568185597073636</v>
+        <v>0.8171590901989347</v>
       </c>
       <c r="I5">
-        <v>0.29965752560528</v>
+        <v>0.6300525135975761</v>
       </c>
       <c r="J5">
-        <v>0.03043019000916658</v>
+        <v>0.05961538257117382</v>
       </c>
       <c r="K5">
-        <v>0.8463121295285703</v>
+        <v>0.3273352313387647</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7986330861948447</v>
+        <v>1.498432346281201</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7376013011250393</v>
+        <v>0.303072198958688</v>
       </c>
       <c r="C6">
-        <v>0.140462026172969</v>
+        <v>0.04635100334597553</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.629942102319049</v>
+        <v>0.5406742436257161</v>
       </c>
       <c r="F6">
-        <v>1.724374986658304</v>
+        <v>2.38867312278812</v>
       </c>
       <c r="G6">
-        <v>0.4201841637624071</v>
+        <v>0.7110667580290055</v>
       </c>
       <c r="H6">
-        <v>0.3568897415878638</v>
+        <v>0.817439664466427</v>
       </c>
       <c r="I6">
-        <v>0.299856492586823</v>
+        <v>0.6303315297212642</v>
       </c>
       <c r="J6">
-        <v>0.03041350979050605</v>
+        <v>0.05963418336187587</v>
       </c>
       <c r="K6">
-        <v>0.8401522084662076</v>
+        <v>0.3255645851024553</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8005729257408492</v>
+        <v>1.499232121343374</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7750391754053396</v>
+        <v>0.3138361927867379</v>
       </c>
       <c r="C7">
-        <v>0.1476771248078137</v>
+        <v>0.04842144988639063</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6595213310154548</v>
+        <v>0.5474675523845463</v>
       </c>
       <c r="F7">
-        <v>1.779634974737618</v>
+        <v>2.39708526769752</v>
       </c>
       <c r="G7">
-        <v>0.4241289035898674</v>
+        <v>0.7100427697127927</v>
       </c>
       <c r="H7">
-        <v>0.3564581633840262</v>
+        <v>0.8155268101818294</v>
       </c>
       <c r="I7">
-        <v>0.2985389766531092</v>
+        <v>0.628426569539144</v>
       </c>
       <c r="J7">
-        <v>0.03053627671998527</v>
+        <v>0.05950697632327007</v>
       </c>
       <c r="K7">
-        <v>0.8829388554589173</v>
+        <v>0.3378614612375088</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7872074754591951</v>
+        <v>1.493729780780715</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9409243736963333</v>
+        <v>0.3615023303984799</v>
       </c>
       <c r="C8">
-        <v>0.1797386860497312</v>
+        <v>0.05756941825995909</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7918274228272253</v>
+        <v>0.5780844428410035</v>
       </c>
       <c r="F8">
-        <v>2.031111194026892</v>
+        <v>2.437445392468263</v>
       </c>
       <c r="G8">
-        <v>0.4442370355501879</v>
+        <v>0.7066496035451593</v>
       </c>
       <c r="H8">
-        <v>0.3561599841875989</v>
+        <v>0.8079431537292976</v>
       </c>
       <c r="I8">
-        <v>0.2943599898183216</v>
+        <v>0.6208059455985691</v>
       </c>
       <c r="J8">
-        <v>0.03125948011349422</v>
+        <v>0.05902719112017607</v>
       </c>
       <c r="K8">
-        <v>1.07263690940087</v>
+        <v>0.3922876219509419</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7307378268738685</v>
+        <v>1.470661382496023</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.269872301949647</v>
+        <v>0.455557460649004</v>
       </c>
       <c r="C9">
-        <v>0.2437762055340755</v>
+        <v>0.07555199534149892</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.059536055667692</v>
+        <v>0.6404347368179515</v>
       </c>
       <c r="F9">
-        <v>2.557096116483137</v>
+        <v>2.528282767420762</v>
       </c>
       <c r="G9">
-        <v>0.4947685453368251</v>
+        <v>0.7040604629905545</v>
       </c>
       <c r="H9">
-        <v>0.3619668541656864</v>
+        <v>0.7961556993468974</v>
       </c>
       <c r="I9">
-        <v>0.2926900214768438</v>
+        <v>0.6086923948930689</v>
       </c>
       <c r="J9">
-        <v>0.033418716687315</v>
+        <v>0.05838060134324152</v>
       </c>
       <c r="K9">
-        <v>1.449368879812084</v>
+        <v>0.4995884316618628</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6295903351258749</v>
+        <v>1.429784666233606</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.515042584071836</v>
+        <v>0.5250075405654684</v>
       </c>
       <c r="C10">
-        <v>0.2919184926872163</v>
+        <v>0.08879384852636463</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.263228572452221</v>
+        <v>0.6876706627877525</v>
       </c>
       <c r="F10">
-        <v>2.969247757227407</v>
+        <v>2.602208537893631</v>
       </c>
       <c r="G10">
-        <v>0.5400938047712742</v>
+        <v>0.7046561492403924</v>
       </c>
       <c r="H10">
-        <v>0.3707658337837074</v>
+        <v>0.7893785610372248</v>
       </c>
       <c r="I10">
-        <v>0.2961052884909492</v>
+        <v>0.6015249239741856</v>
       </c>
       <c r="J10">
-        <v>0.0355487578447935</v>
+        <v>0.05808610094181077</v>
       </c>
       <c r="K10">
-        <v>1.730659052282164</v>
+        <v>0.5787690205867477</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5617009913012065</v>
+        <v>1.402412539191405</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.627644964245547</v>
+        <v>0.5566766685415416</v>
       </c>
       <c r="C11">
-        <v>0.3141519226867331</v>
+        <v>0.09482528959040337</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.357906516472113</v>
+        <v>0.7094737653319498</v>
       </c>
       <c r="F11">
-        <v>3.163732564464595</v>
+        <v>2.637413765676911</v>
       </c>
       <c r="G11">
-        <v>0.5628425131526171</v>
+        <v>0.7054739208137875</v>
       </c>
       <c r="H11">
-        <v>0.3759077701528213</v>
+        <v>0.7867050623620031</v>
       </c>
       <c r="I11">
-        <v>0.2988280829805312</v>
+        <v>0.5986419246156025</v>
       </c>
       <c r="J11">
-        <v>0.03665830333684639</v>
+        <v>0.05799158504154889</v>
       </c>
       <c r="K11">
-        <v>1.859999789940133</v>
+        <v>0.6148657943774936</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5323511800306147</v>
+        <v>1.390538258310817</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.670466754995232</v>
+        <v>0.5686796144545951</v>
       </c>
       <c r="C12">
-        <v>0.3226277509083388</v>
+        <v>0.09711038000648387</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.394094215014462</v>
+        <v>0.7177756044932835</v>
       </c>
       <c r="F12">
-        <v>3.238514222782271</v>
+        <v>2.65097260581058</v>
       </c>
       <c r="G12">
-        <v>0.5717950532825995</v>
+        <v>0.7058625549753259</v>
       </c>
       <c r="H12">
-        <v>0.3780329051418363</v>
+        <v>0.7857516144120353</v>
       </c>
       <c r="I12">
-        <v>0.3000420048444425</v>
+        <v>0.5976046200893883</v>
       </c>
       <c r="J12">
-        <v>0.03710074498115645</v>
+        <v>0.05796148797446321</v>
       </c>
       <c r="K12">
-        <v>1.909212106590985</v>
+        <v>0.6285456238183826</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5214706252713244</v>
+        <v>1.386124890029341</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.66123577197871</v>
+        <v>0.5660941028900766</v>
       </c>
       <c r="C13">
-        <v>0.3207996705324376</v>
+        <v>0.09661819510489522</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.386284867802203</v>
+        <v>0.7159856299133622</v>
       </c>
       <c r="F13">
-        <v>3.222356014158407</v>
+        <v>2.648042341906148</v>
       </c>
       <c r="G13">
-        <v>0.5698513900315874</v>
+        <v>0.7057753384772667</v>
       </c>
       <c r="H13">
-        <v>0.3775670637438537</v>
+        <v>0.7859543336514179</v>
       </c>
       <c r="I13">
-        <v>0.2997721841415455</v>
+        <v>0.5978255994166446</v>
       </c>
       <c r="J13">
-        <v>0.0370044313660749</v>
+        <v>0.05796771634162567</v>
       </c>
       <c r="K13">
-        <v>1.898602359433426</v>
+        <v>0.6255989542015641</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5238033387400129</v>
+        <v>1.387071687002137</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.631164131313227</v>
+        <v>0.5576639492014976</v>
       </c>
       <c r="C14">
-        <v>0.3148480494245689</v>
+        <v>0.09501326293568013</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.360876706417855</v>
+        <v>0.7101558503538854</v>
       </c>
       <c r="F14">
-        <v>3.169861377911673</v>
+        <v>2.638524698143868</v>
       </c>
       <c r="G14">
-        <v>0.563572075854097</v>
+        <v>0.705504309551273</v>
       </c>
       <c r="H14">
-        <v>0.3760789533355791</v>
+        <v>0.7866254398218615</v>
       </c>
       <c r="I14">
-        <v>0.2989241993884626</v>
+        <v>0.5985554934014914</v>
       </c>
       <c r="J14">
-        <v>0.03669424422260192</v>
+        <v>0.05798899470145713</v>
       </c>
       <c r="K14">
-        <v>1.8640436177987</v>
+        <v>0.6159910283025454</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.53145127007563</v>
+        <v>1.390173500357255</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.612768902108996</v>
+        <v>0.5525015971354321</v>
       </c>
       <c r="C15">
-        <v>0.3112101382011474</v>
+        <v>0.09403034120748544</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.345358549686011</v>
+        <v>0.7065908689288847</v>
       </c>
       <c r="F15">
-        <v>3.137858673092694</v>
+        <v>2.632724501208884</v>
       </c>
       <c r="G15">
-        <v>0.5597708365840788</v>
+        <v>0.7053485895966105</v>
       </c>
       <c r="H15">
-        <v>0.3751910650010757</v>
+        <v>0.7870441905570118</v>
       </c>
       <c r="I15">
-        <v>0.2984290566912655</v>
+        <v>0.5990096663617308</v>
       </c>
       <c r="J15">
-        <v>0.03650721181975314</v>
+        <v>0.05800277046041913</v>
       </c>
       <c r="K15">
-        <v>1.84290693869184</v>
+        <v>0.6101072884837038</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5361666750170615</v>
+        <v>1.392084284937646</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.507707635612718</v>
+        <v>0.5229393836719396</v>
       </c>
       <c r="C16">
-        <v>0.2904729072176622</v>
+        <v>0.08839983488152825</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.257085490494362</v>
+        <v>0.6862521346502746</v>
       </c>
       <c r="F16">
-        <v>2.956689186377986</v>
+        <v>2.599939571368225</v>
       </c>
       <c r="G16">
-        <v>0.5386526406575314</v>
+        <v>0.7046137372981178</v>
       </c>
       <c r="H16">
-        <v>0.3704539041850268</v>
+        <v>0.7895615256057624</v>
       </c>
       <c r="I16">
-        <v>0.295952105309599</v>
+        <v>0.6017209431875266</v>
       </c>
       <c r="J16">
-        <v>0.03547924757478782</v>
+        <v>0.05809307345138137</v>
       </c>
       <c r="K16">
-        <v>1.722237052474355</v>
+        <v>0.5764115356013519</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5636510200442428</v>
+        <v>1.403200181859646</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.44354955973003</v>
+        <v>0.5048230982103803</v>
       </c>
       <c r="C17">
-        <v>0.2778424983324328</v>
+        <v>0.08494767202932962</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.20348015523733</v>
+        <v>0.6738558239980676</v>
       </c>
       <c r="F17">
-        <v>2.847426807603938</v>
+        <v>2.580231270334679</v>
       </c>
       <c r="G17">
-        <v>0.5262646328444873</v>
+        <v>0.7043032127614026</v>
       </c>
       <c r="H17">
-        <v>0.3678492978078225</v>
+        <v>0.7912107490551819</v>
       </c>
       <c r="I17">
-        <v>0.2947421243579313</v>
+        <v>0.6034810133155801</v>
       </c>
       <c r="J17">
-        <v>0.03488604206482293</v>
+        <v>0.05815859112206567</v>
       </c>
       <c r="K17">
-        <v>1.648587662599937</v>
+        <v>0.5557598040867049</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5809134866395587</v>
+        <v>1.410167410948727</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.40674676766298</v>
+        <v>0.4944102605901151</v>
       </c>
       <c r="C18">
-        <v>0.2706086284071887</v>
+        <v>0.0829627990031554</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.172834686470864</v>
+        <v>0.6667554572240277</v>
       </c>
       <c r="F18">
-        <v>2.78523197316872</v>
+        <v>2.569043874065585</v>
       </c>
       <c r="G18">
-        <v>0.5193378053484139</v>
+        <v>0.7041760537695581</v>
       </c>
       <c r="H18">
-        <v>0.3664575088426574</v>
+        <v>0.7921978744572726</v>
       </c>
       <c r="I18">
-        <v>0.2941552704571855</v>
+        <v>0.6045288846785226</v>
       </c>
       <c r="J18">
-        <v>0.03455794360792908</v>
+        <v>0.05819998749100108</v>
       </c>
       <c r="K18">
-        <v>1.606354120476027</v>
+        <v>0.543888753267936</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5909858862510342</v>
+        <v>1.414229119951059</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.394302222877229</v>
+        <v>0.4908858960160103</v>
       </c>
       <c r="C19">
-        <v>0.2681644071384994</v>
+        <v>0.08229087830626725</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.162489457485563</v>
+        <v>0.6643564853327319</v>
       </c>
       <c r="F19">
-        <v>2.764281789545777</v>
+        <v>2.565281461274708</v>
       </c>
       <c r="G19">
-        <v>0.517025656001465</v>
+        <v>0.7041418257531404</v>
       </c>
       <c r="H19">
-        <v>0.3660041201243729</v>
+        <v>0.7925387146282503</v>
       </c>
       <c r="I19">
-        <v>0.2939748801924118</v>
+        <v>0.6048897732819682</v>
       </c>
       <c r="J19">
-        <v>0.03444904472276988</v>
+        <v>0.05821464056057835</v>
       </c>
       <c r="K19">
-        <v>1.592075467101978</v>
+        <v>0.5398706795598684</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5944204902340333</v>
+        <v>1.415613674434296</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.450368835110737</v>
+        <v>0.506750868388167</v>
       </c>
       <c r="C20">
-        <v>0.2791837789042404</v>
+        <v>0.08531508607131855</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.209166878815793</v>
+        <v>0.6751723613497091</v>
       </c>
       <c r="F20">
-        <v>2.858989810061445</v>
+        <v>2.582313898974434</v>
       </c>
       <c r="G20">
-        <v>0.5275625993757842</v>
+        <v>0.7043309416895767</v>
       </c>
       <c r="H20">
-        <v>0.3681154609825512</v>
+        <v>0.7910311976064435</v>
       </c>
       <c r="I20">
-        <v>0.2948595352036421</v>
+        <v>0.6032899730825996</v>
       </c>
       <c r="J20">
-        <v>0.0349478198777966</v>
+        <v>0.05815123229216113</v>
       </c>
       <c r="K20">
-        <v>1.656414310250454</v>
+        <v>0.5579574651871155</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5790609260729758</v>
+        <v>1.409420112280125</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.639991739007314</v>
+        <v>0.5601398068522201</v>
       </c>
       <c r="C21">
-        <v>0.3165945785017072</v>
+        <v>0.09548464005757751</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.368330218191815</v>
+        <v>0.7118669625040042</v>
       </c>
       <c r="F21">
-        <v>3.185248447537134</v>
+        <v>2.641314083628259</v>
       </c>
       <c r="G21">
-        <v>0.5654070193431124</v>
+        <v>0.7055817716487809</v>
       </c>
       <c r="H21">
-        <v>0.3765110974951114</v>
+        <v>0.7864267192866663</v>
       </c>
       <c r="I21">
-        <v>0.2991681866091476</v>
+        <v>0.5983396276690556</v>
       </c>
       <c r="J21">
-        <v>0.03678473159754603</v>
+        <v>0.05798259003123718</v>
       </c>
       <c r="K21">
-        <v>1.874187715775378</v>
+        <v>0.6188128194814055</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5291984382060653</v>
+        <v>1.389260164482957</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.764994953616622</v>
+        <v>0.595093789477886</v>
       </c>
       <c r="C22">
-        <v>0.3413786957491141</v>
+        <v>0.1021375347950197</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.474331049351463</v>
+        <v>0.7361141528174926</v>
       </c>
       <c r="F22">
-        <v>3.405159052692227</v>
+        <v>2.681199841383233</v>
       </c>
       <c r="G22">
-        <v>0.5921280658202761</v>
+        <v>0.7068596669698621</v>
       </c>
       <c r="H22">
-        <v>0.3830431300269623</v>
+        <v>0.783761053229199</v>
       </c>
       <c r="I22">
-        <v>0.3030577555901672</v>
+        <v>0.5954215845544653</v>
       </c>
       <c r="J22">
-        <v>0.0381162295631583</v>
+        <v>0.05790557154820775</v>
       </c>
       <c r="K22">
-        <v>2.017896675837989</v>
+        <v>0.6586479055969789</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4979787932577224</v>
+        <v>1.376569280449687</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.698170440976725</v>
+        <v>0.5764327159953382</v>
       </c>
       <c r="C23">
-        <v>0.3281173233374091</v>
+        <v>0.09858615996375875</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.417559198954962</v>
+        <v>0.7231486609806836</v>
       </c>
       <c r="F23">
-        <v>3.287131368142639</v>
+        <v>2.65979050643719</v>
       </c>
       <c r="G23">
-        <v>0.5776734252638391</v>
+        <v>0.7061353924232492</v>
       </c>
       <c r="H23">
-        <v>0.3794562264249777</v>
+        <v>0.7851523044708699</v>
       </c>
       <c r="I23">
-        <v>0.3008783775708466</v>
+        <v>0.5969499208800144</v>
       </c>
       <c r="J23">
-        <v>0.03739286682753473</v>
+        <v>0.05794363319458284</v>
       </c>
       <c r="K23">
-        <v>1.941057577788541</v>
+        <v>0.6373815504166771</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5145114852118207</v>
+        <v>1.383298240459073</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.4472855856568</v>
+        <v>0.5058793158109722</v>
       </c>
       <c r="C24">
-        <v>0.2785773008769183</v>
+        <v>0.08514897874113103</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.206595375730629</v>
+        <v>0.67457707247695</v>
       </c>
       <c r="F24">
-        <v>2.85376025018877</v>
+        <v>2.581371896650978</v>
       </c>
       <c r="G24">
-        <v>0.5269751830630582</v>
+        <v>0.7043182454610957</v>
       </c>
       <c r="H24">
-        <v>0.3679948006416538</v>
+        <v>0.7911122514432662</v>
       </c>
       <c r="I24">
-        <v>0.2948061160327065</v>
+        <v>0.6033762302919499</v>
       </c>
       <c r="J24">
-        <v>0.03491984996691855</v>
+        <v>0.05815454760433525</v>
       </c>
       <c r="K24">
-        <v>1.652875547605504</v>
+        <v>0.556963896647062</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5798980087641317</v>
+        <v>1.409757791086501</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.180367721875257</v>
+        <v>0.430051481700616</v>
       </c>
       <c r="C25">
-        <v>0.2262900256258717</v>
+        <v>0.07068221371231687</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.986037019600559</v>
+        <v>0.6233180538699514</v>
       </c>
       <c r="F25">
-        <v>2.410729589310904</v>
+        <v>2.502451021687989</v>
       </c>
       <c r="G25">
-        <v>0.4797689245846612</v>
+        <v>0.7043236729186049</v>
       </c>
       <c r="H25">
-        <v>0.3596490086034549</v>
+        <v>0.7990140445613747</v>
       </c>
       <c r="I25">
-        <v>0.2923777109904933</v>
+        <v>0.6116657080157246</v>
       </c>
       <c r="J25">
-        <v>0.03274621938468059</v>
+        <v>0.05852389871903085</v>
       </c>
       <c r="K25">
-        <v>1.346786750527826</v>
+        <v>0.4704997303997516</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6558698594336647</v>
+        <v>1.440375923749018</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_71/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3744571182745915</v>
+        <v>0.986074144023064</v>
       </c>
       <c r="C2">
-        <v>0.06005086765733836</v>
+        <v>0.1884914863514382</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5865357784368257</v>
+        <v>0.8281674569015109</v>
       </c>
       <c r="F2">
-        <v>2.449169946602794</v>
+        <v>2.101276715511787</v>
       </c>
       <c r="G2">
-        <v>0.7060045748315815</v>
+        <v>0.4503871130372801</v>
       </c>
       <c r="H2">
-        <v>0.8060969680762184</v>
+        <v>0.3564898360923934</v>
       </c>
       <c r="I2">
-        <v>0.6189324368316598</v>
+        <v>0.293646345274297</v>
       </c>
       <c r="J2">
-        <v>0.05891706508964489</v>
+        <v>0.03150242773213563</v>
       </c>
       <c r="K2">
-        <v>0.4070731114357784</v>
+        <v>1.124300384266206</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.464706026856127</v>
+        <v>0.7160664228310623</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.336929604762048</v>
+        <v>0.8553734723931541</v>
       </c>
       <c r="C3">
-        <v>0.0528572948692414</v>
+        <v>0.1631848845209589</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5621997698815164</v>
+        <v>0.7233489578219405</v>
       </c>
       <c r="F3">
-        <v>2.416051399948927</v>
+        <v>1.900126090040615</v>
       </c>
       <c r="G3">
-        <v>0.70818315275271</v>
+        <v>0.4333555906657125</v>
       </c>
       <c r="H3">
-        <v>0.8116852256986249</v>
+        <v>0.3560016914985198</v>
       </c>
       <c r="I3">
-        <v>0.6245805938032412</v>
+        <v>0.2961939527294604</v>
       </c>
       <c r="J3">
-        <v>0.0592587495646768</v>
+        <v>0.03085167883300244</v>
       </c>
       <c r="K3">
-        <v>0.3642351848663168</v>
+        <v>0.9747819663438122</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.482308678207872</v>
+        <v>0.7593294517610358</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3139622367207835</v>
+        <v>0.7754775628961283</v>
       </c>
       <c r="C4">
-        <v>0.04844568282838679</v>
+        <v>0.1477616562441284</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5475473916211939</v>
+        <v>0.6598683363408497</v>
       </c>
       <c r="F4">
-        <v>2.397185469945342</v>
+        <v>1.780285518348492</v>
       </c>
       <c r="G4">
-        <v>0.7100314026908947</v>
+        <v>0.4241764782384294</v>
       </c>
       <c r="H4">
-        <v>0.8155048964673384</v>
+        <v>0.3564539650534755</v>
       </c>
       <c r="I4">
-        <v>0.6284047086951574</v>
+        <v>0.298524426045649</v>
       </c>
       <c r="J4">
-        <v>0.05950553241511614</v>
+        <v>0.03053780862744304</v>
       </c>
       <c r="K4">
-        <v>0.3380054391976159</v>
+        <v>0.8834399303553937</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.493666059897231</v>
+        <v>0.7870524313420306</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.30462197637911</v>
+        <v>0.742991664840531</v>
       </c>
       <c r="C5">
-        <v>0.04664922509469704</v>
+        <v>0.1415004052683031</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5416492343913291</v>
+        <v>0.6341942334563129</v>
       </c>
       <c r="F5">
-        <v>2.389866223045118</v>
+        <v>1.732294884537495</v>
       </c>
       <c r="G5">
-        <v>0.7109126913038821</v>
+        <v>0.4207375378418519</v>
       </c>
       <c r="H5">
-        <v>0.8171590901989347</v>
+        <v>0.3568185597074844</v>
       </c>
       <c r="I5">
-        <v>0.6300525135975761</v>
+        <v>0.2996575256052871</v>
       </c>
       <c r="J5">
-        <v>0.05961538257117382</v>
+        <v>0.03043019000915947</v>
       </c>
       <c r="K5">
-        <v>0.3273352313387647</v>
+        <v>0.8463121295285987</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.498432346281201</v>
+        <v>0.7986330861949078</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.303072198958688</v>
+        <v>0.7376013011250677</v>
       </c>
       <c r="C6">
-        <v>0.04635100334597553</v>
+        <v>0.1404620261730116</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5406742436257161</v>
+        <v>0.6299421023190632</v>
       </c>
       <c r="F6">
-        <v>2.38867312278812</v>
+        <v>1.724374986658319</v>
       </c>
       <c r="G6">
-        <v>0.7110667580290055</v>
+        <v>0.420184163762471</v>
       </c>
       <c r="H6">
-        <v>0.817439664466427</v>
+        <v>0.3568897415878638</v>
       </c>
       <c r="I6">
-        <v>0.6303315297212642</v>
+        <v>0.2998564925868301</v>
       </c>
       <c r="J6">
-        <v>0.05963418336187587</v>
+        <v>0.03041350979050605</v>
       </c>
       <c r="K6">
-        <v>0.3255645851024553</v>
+        <v>0.8401522084661508</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.499232121343374</v>
+        <v>0.8005729257409087</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3138361927867379</v>
+        <v>0.7750391754053965</v>
       </c>
       <c r="C7">
-        <v>0.04842144988639063</v>
+        <v>0.1476771248078137</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5474675523845463</v>
+        <v>0.6595213310154548</v>
       </c>
       <c r="F7">
-        <v>2.39708526769752</v>
+        <v>1.779634974737604</v>
       </c>
       <c r="G7">
-        <v>0.7100427697127927</v>
+        <v>0.4241289035899598</v>
       </c>
       <c r="H7">
-        <v>0.8155268101818294</v>
+        <v>0.3564581633840262</v>
       </c>
       <c r="I7">
-        <v>0.628426569539144</v>
+        <v>0.2985389766531235</v>
       </c>
       <c r="J7">
-        <v>0.05950697632327007</v>
+        <v>0.03053627671991777</v>
       </c>
       <c r="K7">
-        <v>0.3378614612375088</v>
+        <v>0.8829388554588888</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.493729780780715</v>
+        <v>0.7872074754591871</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3615023303984799</v>
+        <v>0.9409243736963049</v>
       </c>
       <c r="C8">
-        <v>0.05756941825995909</v>
+        <v>0.179738686049788</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5780844428410035</v>
+        <v>0.7918274228272111</v>
       </c>
       <c r="F8">
-        <v>2.437445392468263</v>
+        <v>2.031111194026906</v>
       </c>
       <c r="G8">
-        <v>0.7066496035451593</v>
+        <v>0.4442370355501311</v>
       </c>
       <c r="H8">
-        <v>0.8079431537292976</v>
+        <v>0.3561599841876131</v>
       </c>
       <c r="I8">
-        <v>0.6208059455985691</v>
+        <v>0.2943599898183251</v>
       </c>
       <c r="J8">
-        <v>0.05902719112017607</v>
+        <v>0.03125948011355106</v>
       </c>
       <c r="K8">
-        <v>0.3922876219509419</v>
+        <v>1.072636909400842</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.470661382496023</v>
+        <v>0.7307378268738818</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.455557460649004</v>
+        <v>1.269872301949533</v>
       </c>
       <c r="C9">
-        <v>0.07555199534149892</v>
+        <v>0.2437762055339903</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6404347368179515</v>
+        <v>1.059536055667692</v>
       </c>
       <c r="F9">
-        <v>2.528282767420762</v>
+        <v>2.557096116483166</v>
       </c>
       <c r="G9">
-        <v>0.7040604629905545</v>
+        <v>0.4947685453367825</v>
       </c>
       <c r="H9">
-        <v>0.7961556993468974</v>
+        <v>0.3619668541657006</v>
       </c>
       <c r="I9">
-        <v>0.6086923948930689</v>
+        <v>0.2926900214768438</v>
       </c>
       <c r="J9">
-        <v>0.05838060134324152</v>
+        <v>0.03341871668719421</v>
       </c>
       <c r="K9">
-        <v>0.4995884316618628</v>
+        <v>1.449368879812226</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.429784666233606</v>
+        <v>0.6295903351259229</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5250075405654684</v>
+        <v>1.515042584071864</v>
       </c>
       <c r="C10">
-        <v>0.08879384852636463</v>
+        <v>0.2919184926875289</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6876706627877525</v>
+        <v>1.263228572452192</v>
       </c>
       <c r="F10">
-        <v>2.602208537893631</v>
+        <v>2.969247757227436</v>
       </c>
       <c r="G10">
-        <v>0.7046561492403924</v>
+        <v>0.5400938047712458</v>
       </c>
       <c r="H10">
-        <v>0.7893785610372248</v>
+        <v>0.3707658337837074</v>
       </c>
       <c r="I10">
-        <v>0.6015249239741856</v>
+        <v>0.2961052884909599</v>
       </c>
       <c r="J10">
-        <v>0.05808610094181077</v>
+        <v>0.03554875784477929</v>
       </c>
       <c r="K10">
-        <v>0.5787690205867477</v>
+        <v>1.730659052282192</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.402412539191405</v>
+        <v>0.5617009913011328</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5566766685415416</v>
+        <v>1.627644964245405</v>
       </c>
       <c r="C11">
-        <v>0.09482528959040337</v>
+        <v>0.3141519226865057</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7094737653319498</v>
+        <v>1.357906516472141</v>
       </c>
       <c r="F11">
-        <v>2.637413765676911</v>
+        <v>3.163732564464595</v>
       </c>
       <c r="G11">
-        <v>0.7054739208137875</v>
+        <v>0.5628425131526882</v>
       </c>
       <c r="H11">
-        <v>0.7867050623620031</v>
+        <v>0.3759077701528071</v>
       </c>
       <c r="I11">
-        <v>0.5986419246156025</v>
+        <v>0.2988280829805312</v>
       </c>
       <c r="J11">
-        <v>0.05799158504154889</v>
+        <v>0.03665830333689257</v>
       </c>
       <c r="K11">
-        <v>0.6148657943774936</v>
+        <v>1.859999789940133</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.390538258310817</v>
+        <v>0.5323511800305951</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5686796144545951</v>
+        <v>1.670466754995374</v>
       </c>
       <c r="C12">
-        <v>0.09711038000648387</v>
+        <v>0.3226277509083104</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7177756044932835</v>
+        <v>1.394094215014476</v>
       </c>
       <c r="F12">
-        <v>2.65097260581058</v>
+        <v>3.2385142227823</v>
       </c>
       <c r="G12">
-        <v>0.7058625549753259</v>
+        <v>0.5717950532825569</v>
       </c>
       <c r="H12">
-        <v>0.7857516144120353</v>
+        <v>0.3780329051418363</v>
       </c>
       <c r="I12">
-        <v>0.5976046200893883</v>
+        <v>0.3000420048444568</v>
       </c>
       <c r="J12">
-        <v>0.05796148797446321</v>
+        <v>0.03710074498114935</v>
       </c>
       <c r="K12">
-        <v>0.6285456238183826</v>
+        <v>1.909212106591156</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.386124890029341</v>
+        <v>0.5214706252713066</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5660941028900766</v>
+        <v>1.661235771978852</v>
       </c>
       <c r="C13">
-        <v>0.09661819510489522</v>
+        <v>0.3207996705319545</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7159856299133622</v>
+        <v>1.386284867802203</v>
       </c>
       <c r="F13">
-        <v>2.648042341906148</v>
+        <v>3.222356014158379</v>
       </c>
       <c r="G13">
-        <v>0.7057753384772667</v>
+        <v>0.5698513900315731</v>
       </c>
       <c r="H13">
-        <v>0.7859543336514179</v>
+        <v>0.3775670637438537</v>
       </c>
       <c r="I13">
-        <v>0.5978255994166446</v>
+        <v>0.2997721841415668</v>
       </c>
       <c r="J13">
-        <v>0.05796771634162567</v>
+        <v>0.03700443136613529</v>
       </c>
       <c r="K13">
-        <v>0.6255989542015641</v>
+        <v>1.898602359433397</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.387071687002137</v>
+        <v>0.5238033387399552</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5576639492014976</v>
+        <v>1.631164131313199</v>
       </c>
       <c r="C14">
-        <v>0.09501326293568013</v>
+        <v>0.3148480494244836</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7101558503538854</v>
+        <v>1.360876706417869</v>
       </c>
       <c r="F14">
-        <v>2.638524698143868</v>
+        <v>3.169861377911673</v>
       </c>
       <c r="G14">
-        <v>0.705504309551273</v>
+        <v>0.5635720758540828</v>
       </c>
       <c r="H14">
-        <v>0.7866254398218615</v>
+        <v>0.3760789533354654</v>
       </c>
       <c r="I14">
-        <v>0.5985554934014914</v>
+        <v>0.2989241993884733</v>
       </c>
       <c r="J14">
-        <v>0.05798899470145713</v>
+        <v>0.03669424422272982</v>
       </c>
       <c r="K14">
-        <v>0.6159910283025454</v>
+        <v>1.8640436177987</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.390173500357255</v>
+        <v>0.5314512700756193</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5525015971354321</v>
+        <v>1.612768902109053</v>
       </c>
       <c r="C15">
-        <v>0.09403034120748544</v>
+        <v>0.3112101382006927</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7065908689288847</v>
+        <v>1.345358549685983</v>
       </c>
       <c r="F15">
-        <v>2.632724501208884</v>
+        <v>3.137858673092722</v>
       </c>
       <c r="G15">
-        <v>0.7053485895966105</v>
+        <v>0.5597708365840788</v>
       </c>
       <c r="H15">
-        <v>0.7870441905570118</v>
+        <v>0.3751910650010615</v>
       </c>
       <c r="I15">
-        <v>0.5990096663617308</v>
+        <v>0.2984290566912335</v>
       </c>
       <c r="J15">
-        <v>0.05800277046041913</v>
+        <v>0.03650721181975669</v>
       </c>
       <c r="K15">
-        <v>0.6101072884837038</v>
+        <v>1.842906938691897</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.392084284937646</v>
+        <v>0.5361666750170482</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5229393836719396</v>
+        <v>1.507707635612604</v>
       </c>
       <c r="C16">
-        <v>0.08839983488152825</v>
+        <v>0.2904729072173211</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6862521346502746</v>
+        <v>1.257085490494376</v>
       </c>
       <c r="F16">
-        <v>2.599939571368225</v>
+        <v>2.956689186377986</v>
       </c>
       <c r="G16">
-        <v>0.7046137372981178</v>
+        <v>0.5386526406576024</v>
       </c>
       <c r="H16">
-        <v>0.7895615256057624</v>
+        <v>0.370453904185041</v>
       </c>
       <c r="I16">
-        <v>0.6017209431875266</v>
+        <v>0.2959521053096061</v>
       </c>
       <c r="J16">
-        <v>0.05809307345138137</v>
+        <v>0.03547924757484822</v>
       </c>
       <c r="K16">
-        <v>0.5764115356013519</v>
+        <v>1.72223705247427</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.403200181859646</v>
+        <v>0.5636510200441993</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5048230982103803</v>
+        <v>1.443549559730002</v>
       </c>
       <c r="C17">
-        <v>0.08494767202932962</v>
+        <v>0.2778424983324896</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6738558239980676</v>
+        <v>1.203480155237315</v>
       </c>
       <c r="F17">
-        <v>2.580231270334679</v>
+        <v>2.847426807603966</v>
       </c>
       <c r="G17">
-        <v>0.7043032127614026</v>
+        <v>0.5262646328444589</v>
       </c>
       <c r="H17">
-        <v>0.7912107490551819</v>
+        <v>0.3678492978079362</v>
       </c>
       <c r="I17">
-        <v>0.6034810133155801</v>
+        <v>0.2947421243579456</v>
       </c>
       <c r="J17">
-        <v>0.05815859112206567</v>
+        <v>0.03488604206476253</v>
       </c>
       <c r="K17">
-        <v>0.5557598040867049</v>
+        <v>1.648587662600022</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.410167410948727</v>
+        <v>0.580913486639556</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4944102605901151</v>
+        <v>1.406746767663094</v>
       </c>
       <c r="C18">
-        <v>0.0829627990031554</v>
+        <v>0.2706086284071887</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6667554572240277</v>
+        <v>1.17283468647085</v>
       </c>
       <c r="F18">
-        <v>2.569043874065585</v>
+        <v>2.785231973168692</v>
       </c>
       <c r="G18">
-        <v>0.7041760537695581</v>
+        <v>0.5193378053485134</v>
       </c>
       <c r="H18">
-        <v>0.7921978744572726</v>
+        <v>0.3664575088425295</v>
       </c>
       <c r="I18">
-        <v>0.6045288846785226</v>
+        <v>0.2941552704572068</v>
       </c>
       <c r="J18">
-        <v>0.05819998749100108</v>
+        <v>0.03455794360798947</v>
       </c>
       <c r="K18">
-        <v>0.543888753267936</v>
+        <v>1.606354120476027</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.414229119951059</v>
+        <v>0.5909858862510458</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4908858960160103</v>
+        <v>1.394302222877258</v>
       </c>
       <c r="C19">
-        <v>0.08229087830626725</v>
+        <v>0.268164407138741</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6643564853327319</v>
+        <v>1.162489457485549</v>
       </c>
       <c r="F19">
-        <v>2.565281461274708</v>
+        <v>2.764281789545777</v>
       </c>
       <c r="G19">
-        <v>0.7041418257531404</v>
+        <v>0.5170256560014366</v>
       </c>
       <c r="H19">
-        <v>0.7925387146282503</v>
+        <v>0.3660041201242592</v>
       </c>
       <c r="I19">
-        <v>0.6048897732819682</v>
+        <v>0.2939748801924118</v>
       </c>
       <c r="J19">
-        <v>0.05821464056057835</v>
+        <v>0.03444904472270238</v>
       </c>
       <c r="K19">
-        <v>0.5398706795598684</v>
+        <v>1.592075467101978</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.415613674434296</v>
+        <v>0.5944204902340369</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.506750868388167</v>
+        <v>1.450368835110766</v>
       </c>
       <c r="C20">
-        <v>0.08531508607131855</v>
+        <v>0.2791837789044678</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6751723613497091</v>
+        <v>1.209166878815779</v>
       </c>
       <c r="F20">
-        <v>2.582313898974434</v>
+        <v>2.858989810061445</v>
       </c>
       <c r="G20">
-        <v>0.7043309416895767</v>
+        <v>0.5275625993757842</v>
       </c>
       <c r="H20">
-        <v>0.7910311976064435</v>
+        <v>0.3681154609825512</v>
       </c>
       <c r="I20">
-        <v>0.6032899730825996</v>
+        <v>0.2948595352036421</v>
       </c>
       <c r="J20">
-        <v>0.05815123229216113</v>
+        <v>0.03494781987786766</v>
       </c>
       <c r="K20">
-        <v>0.5579574651871155</v>
+        <v>1.656414310250426</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.409420112280125</v>
+        <v>0.5790609260729749</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5601398068522201</v>
+        <v>1.639991739007371</v>
       </c>
       <c r="C21">
-        <v>0.09548464005757751</v>
+        <v>0.3165945785015936</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7118669625040042</v>
+        <v>1.368330218191815</v>
       </c>
       <c r="F21">
-        <v>2.641314083628259</v>
+        <v>3.185248447537134</v>
       </c>
       <c r="G21">
-        <v>0.7055817716487809</v>
+        <v>0.5654070193431409</v>
       </c>
       <c r="H21">
-        <v>0.7864267192866663</v>
+        <v>0.376511097495225</v>
       </c>
       <c r="I21">
-        <v>0.5983396276690556</v>
+        <v>0.2991681866091476</v>
       </c>
       <c r="J21">
-        <v>0.05798259003123718</v>
+        <v>0.03678473159746076</v>
       </c>
       <c r="K21">
-        <v>0.6188128194814055</v>
+        <v>1.87418771577552</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.389260164482957</v>
+        <v>0.5291984382060022</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.595093789477886</v>
+        <v>1.764994953616565</v>
       </c>
       <c r="C22">
-        <v>0.1021375347950197</v>
+        <v>0.3413786957490856</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7361141528174926</v>
+        <v>1.474331049351449</v>
       </c>
       <c r="F22">
-        <v>2.681199841383233</v>
+        <v>3.405159052692227</v>
       </c>
       <c r="G22">
-        <v>0.7068596669698621</v>
+        <v>0.5921280658202619</v>
       </c>
       <c r="H22">
-        <v>0.783761053229199</v>
+        <v>0.3830431300268486</v>
       </c>
       <c r="I22">
-        <v>0.5954215845544653</v>
+        <v>0.3030577555901672</v>
       </c>
       <c r="J22">
-        <v>0.05790557154820775</v>
+        <v>0.03811622956316896</v>
       </c>
       <c r="K22">
-        <v>0.6586479055969789</v>
+        <v>2.017896675837932</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.376569280449687</v>
+        <v>0.4979787932577224</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5764327159953382</v>
+        <v>1.698170440976696</v>
       </c>
       <c r="C23">
-        <v>0.09858615996375875</v>
+        <v>0.3281173233373806</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7231486609806836</v>
+        <v>1.41755919895499</v>
       </c>
       <c r="F23">
-        <v>2.65979050643719</v>
+        <v>3.287131368142639</v>
       </c>
       <c r="G23">
-        <v>0.7061353924232492</v>
+        <v>0.5776734252638249</v>
       </c>
       <c r="H23">
-        <v>0.7851523044708699</v>
+        <v>0.3794562264249919</v>
       </c>
       <c r="I23">
-        <v>0.5969499208800144</v>
+        <v>0.3008783775708537</v>
       </c>
       <c r="J23">
-        <v>0.05794363319458284</v>
+        <v>0.03739286682759158</v>
       </c>
       <c r="K23">
-        <v>0.6373815504166771</v>
+        <v>1.94105757778857</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.383298240459073</v>
+        <v>0.5145114852117567</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5058793158109722</v>
+        <v>1.447285585656829</v>
       </c>
       <c r="C24">
-        <v>0.08514897874113103</v>
+        <v>0.2785773008768899</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.67457707247695</v>
+        <v>1.206595375730643</v>
       </c>
       <c r="F24">
-        <v>2.581371896650978</v>
+        <v>2.853760250188799</v>
       </c>
       <c r="G24">
-        <v>0.7043182454610957</v>
+        <v>0.5269751830630724</v>
       </c>
       <c r="H24">
-        <v>0.7911122514432662</v>
+        <v>0.3679948006417817</v>
       </c>
       <c r="I24">
-        <v>0.6033762302919499</v>
+        <v>0.2948061160327171</v>
       </c>
       <c r="J24">
-        <v>0.05815454760433525</v>
+        <v>0.03491984996689723</v>
       </c>
       <c r="K24">
-        <v>0.556963896647062</v>
+        <v>1.652875547605532</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.409757791086501</v>
+        <v>0.5798980087641814</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.430051481700616</v>
+        <v>1.180367721875314</v>
       </c>
       <c r="C25">
-        <v>0.07068221371231687</v>
+        <v>0.226290025625957</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6233180538699514</v>
+        <v>0.9860370196005448</v>
       </c>
       <c r="F25">
-        <v>2.502451021687989</v>
+        <v>2.410729589310918</v>
       </c>
       <c r="G25">
-        <v>0.7043236729186049</v>
+        <v>0.4797689245846755</v>
       </c>
       <c r="H25">
-        <v>0.7990140445613747</v>
+        <v>0.3596490086034407</v>
       </c>
       <c r="I25">
-        <v>0.6116657080157246</v>
+        <v>0.2923777109904933</v>
       </c>
       <c r="J25">
-        <v>0.05852389871903085</v>
+        <v>0.03274621938467348</v>
       </c>
       <c r="K25">
-        <v>0.4704997303997516</v>
+        <v>1.346786750527855</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.440375923749018</v>
+        <v>0.6558698594336478</v>
       </c>
       <c r="O25">
         <v>0</v>
